--- a/Document/invoice_DataIntegrasi.xlsx
+++ b/Document/invoice_DataIntegrasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Katalon Studio\Bio-Farma\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A97C4E-3248-4BD1-98A1-43E180F46F61}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCDE3A-7A97-486B-921A-DA3EF80E391D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{459CCFCA-0EFC-4357-BE84-3A3B07E8384A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -308,73 +308,22 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>PO-00035493</t>
-  </si>
-  <si>
-    <t>PO-00040832</t>
-  </si>
-  <si>
-    <t>PO-00029518</t>
-  </si>
-  <si>
-    <t>PO-00035478</t>
-  </si>
-  <si>
-    <t>DN.B-0026</t>
-  </si>
-  <si>
-    <t>BAKTI ADIKARYA SEJAHTERA, PT</t>
-  </si>
-  <si>
-    <t>DN.I-0014</t>
-  </si>
-  <si>
-    <t>INDONESIAN AQUATICS EXPORT</t>
-  </si>
-  <si>
-    <t>DN.B-0037</t>
-  </si>
-  <si>
-    <t>BINOKULAR MEDIA UTAMA, PT</t>
-  </si>
-  <si>
-    <t>C0053</t>
-  </si>
-  <si>
     <t>SARUNG TANGAN TAHAN DINGIN (GLOVE CRYOGENIC)</t>
   </si>
   <si>
     <t>pasang</t>
   </si>
   <si>
-    <t>N0018</t>
-  </si>
-  <si>
     <t>KERA BUNTING</t>
   </si>
   <si>
     <t>ekor</t>
   </si>
   <si>
-    <t>J0893</t>
-  </si>
-  <si>
     <t>CORPORATE IMAGE (IKLAN LAYANAN MASYARAKAT)</t>
   </si>
   <si>
     <t>bln</t>
-  </si>
-  <si>
-    <t>000067579</t>
-  </si>
-  <si>
-    <t>000068113</t>
-  </si>
-  <si>
-    <t>000068365</t>
-  </si>
-  <si>
-    <t>000057976</t>
   </si>
   <si>
     <r>
@@ -428,28 +377,76 @@
     </r>
   </si>
   <si>
-    <t>VIV-000064254</t>
-  </si>
-  <si>
-    <t>VIV-000064265</t>
-  </si>
-  <si>
-    <t>VIV-000064286</t>
-  </si>
-  <si>
-    <t>VIV-000054119</t>
-  </si>
-  <si>
-    <t>007/FK/III/2022</t>
-  </si>
-  <si>
-    <t>052/BINO/II/2023</t>
-  </si>
-  <si>
-    <t>003/FK/II/2023</t>
-  </si>
-  <si>
-    <t>BAS.INV/XIII/2022/01162</t>
+    <t>AutomatedTest-01</t>
+  </si>
+  <si>
+    <t>AutomatedTest-02</t>
+  </si>
+  <si>
+    <t>AutomatedTest-03</t>
+  </si>
+  <si>
+    <t>AutomatedTest-04</t>
+  </si>
+  <si>
+    <t>BAS.INV/XIII/2024/01162</t>
+  </si>
+  <si>
+    <t>003/FK/II/2024</t>
+  </si>
+  <si>
+    <t>052/BINO/II/2024</t>
+  </si>
+  <si>
+    <t>007/FK/III/2024</t>
+  </si>
+  <si>
+    <t>PO/AutomatedTest/2024/001</t>
+  </si>
+  <si>
+    <t>PO/AutomatedTest/2024/002</t>
+  </si>
+  <si>
+    <t>PO/AutomatedTest/2024/003</t>
+  </si>
+  <si>
+    <t>PO/AutomatedTest/2024/004</t>
+  </si>
+  <si>
+    <t>AutomatedTest/01</t>
+  </si>
+  <si>
+    <t>AutomatedTest/02</t>
+  </si>
+  <si>
+    <t>AutomatedTest/03</t>
+  </si>
+  <si>
+    <t>AutomatedTest/04</t>
+  </si>
+  <si>
+    <t>GUNA BUMI UTAMA</t>
+  </si>
+  <si>
+    <t>PERTAMINA PATRA NIAGA</t>
+  </si>
+  <si>
+    <t>PRASADHA PAMUNAH LIMBAH INDUSTRI</t>
+  </si>
+  <si>
+    <t>SATYA SAMITRA NIAGATAMA, PT</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F4748</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F4746</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F5266</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F4740</t>
   </si>
 </sst>
 </file>
@@ -577,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,6 +599,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -921,8 +924,8 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,22 +988,22 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1008,43 +1011,43 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="F2" s="7">
-        <v>45082</v>
-      </c>
-      <c r="G2" t="s">
+        <v>45448</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>2000000345</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="M2">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="P2" s="8">
         <v>49485000</v>
@@ -1059,7 +1062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1067,43 +1070,43 @@
         <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="F3" s="7">
         <v>45474</v>
       </c>
-      <c r="G3" t="s">
-        <v>50</v>
+      <c r="G3" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>2000000345</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M3">
         <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="P3" s="8">
         <v>424954000</v>
@@ -1118,51 +1121,51 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45293</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45569</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4">
+        <v>2000000345</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="7">
-        <v>44928</v>
-      </c>
-      <c r="F4" s="7">
-        <v>45203</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="P4" s="8">
         <v>20000000</v>
@@ -1177,51 +1180,51 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7">
-        <v>44564</v>
+        <v>45293</v>
       </c>
       <c r="F5" s="7">
-        <v>45170</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
+        <v>45536</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>2000000345</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M5">
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="P5" s="8">
         <v>422000000</v>
